--- a/Data/Exp_cofactor_abundance.xlsx
+++ b/Data/Exp_cofactor_abundance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DD0684-CA45-4F4E-B02C-95BAE7E23B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F97AD95-5D6D-6B41-BA80-2910A26E5D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="25380" windowHeight="17040" activeTab="6" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
+    <workbookView xWindow="-30820" yWindow="1480" windowWidth="25380" windowHeight="17040" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet" sheetId="3" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet6!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet6!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Sheet!$A$4</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Sheet!$A$5:$A$8</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Sheet!$B$5:$B$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="57">
   <si>
     <t>Sodium</t>
   </si>
@@ -119,9 +110,6 @@
     <t>NI</t>
   </si>
   <si>
-    <t>LI</t>
-  </si>
-  <si>
     <t>ZN</t>
   </si>
   <si>
@@ -219,6 +207,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1186/gb-2005-6-9-r77</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569982B-6F43-C748-8F0C-1C71160C7BD4}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1617,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1635,19 +1626,19 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1655,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>0.45</v>
@@ -1790,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>4.8899999999999997</v>
@@ -1814,60 +1805,63 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>8.23</v>
+      </c>
+      <c r="D8">
+        <f>C8/100000</f>
+        <v>8.2300000000000008E-5</v>
+      </c>
+      <c r="E8">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <f>(D8/E8)*1000</f>
+        <v>1.3949152542372884E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <f>6.02E+23*0.000000000013*F8*0.001</f>
+        <v>10916606.779661018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
         <v>6.13</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>6.1299999999999999E-5</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>8.7571428571428574E-3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
         <v>68533400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>8.23</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>8.2300000000000008E-5</v>
-      </c>
-      <c r="E9">
-        <v>59</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1.3949152542372884E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>10916606.779661018</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
       <c r="C10">
         <v>0.17</v>
       </c>
@@ -1876,6 +1870,9 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
       <c r="C11">
         <v>1.1200000000000001</v>
       </c>
@@ -1884,6 +1881,9 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
       <c r="C12">
         <v>25.12</v>
       </c>
@@ -1892,6 +1892,9 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
       <c r="C13">
         <v>10.11</v>
       </c>
@@ -1900,6 +1903,9 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
       <c r="C14">
         <v>9.0500000000000007</v>
       </c>
@@ -1908,6 +1914,9 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
       <c r="C15">
         <v>4.1900000000000004</v>
       </c>
@@ -1915,6 +1924,9 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16">
         <v>0.56000000000000005</v>
@@ -1933,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9288F97B-A1CB-6140-AC94-1FA4F77991B3}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,35 +1957,35 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1998,12 +2010,12 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -2025,9 +2037,9 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2052,9 +2064,9 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -2078,11 +2090,10 @@
         <v>711454.54545454553</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -2106,14 +2117,13 @@
         <v>204156521.73913044</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0.01</v>
@@ -2134,30 +2144,28 @@
         <v>12040000</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>3.5999999999999999E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M14" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
@@ -2172,38 +2180,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16946823-2CD1-AD41-B0D8-9C7908A65F92}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -2215,15 +2223,13 @@
         <f t="shared" ref="D2:D11" si="0">C2*0.000001*6.02E+23*0.00000000000007</f>
         <v>76568380</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>314430</v>
@@ -2232,11 +2238,10 @@
         <f t="shared" si="0"/>
         <v>13250080200</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2248,11 +2253,10 @@
         <f t="shared" si="0"/>
         <v>4925702460</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -2264,11 +2268,10 @@
         <f t="shared" si="0"/>
         <v>26042520</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -2280,42 +2283,43 @@
         <f t="shared" si="0"/>
         <v>90601000</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C7">
+        <v>4760</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7*0.000001*6.02E+23*0.00000000000007</f>
+        <v>200586399.99999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
         <v>823630</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>34707768200</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>4760</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>200586399.99999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>973</v>
@@ -2325,9 +2329,12 @@
         <v>41002220</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10">
         <v>17.7</v>
@@ -2337,9 +2344,12 @@
         <v>745878</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
       </c>
       <c r="C11">
         <v>18.12</v>
@@ -2365,40 +2375,40 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -2424,10 +2434,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -2450,7 +2460,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2476,7 +2486,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -2502,7 +2512,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -2510,7 +2523,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2532,14 +2548,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -2548,24 +2564,24 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -2591,10 +2607,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2035</v>
@@ -2617,7 +2633,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2643,7 +2659,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -2669,7 +2685,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -2695,10 +2711,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>12.7</v>
@@ -2721,7 +2737,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8">
         <v>1516</v>
@@ -2729,7 +2748,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>38</v>
@@ -2737,7 +2759,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10">
         <v>4.9000000000000004</v>
@@ -2759,28 +2784,28 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -2791,10 +2816,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>1659586907.4375677</v>
@@ -2802,7 +2827,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2813,7 +2838,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -2824,7 +2849,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -2835,10 +2860,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>79432823.472428367</v>
@@ -2846,7 +2871,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>2290867.6527677765</v>
@@ -2854,7 +2882,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>3235936.5692962883</v>
@@ -2862,7 +2893,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>16218100.973589335</v>
@@ -2870,7 +2904,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>16218100.973589335</v>
@@ -2878,7 +2915,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>2754228703.3381724</v>
@@ -2886,7 +2926,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>426579518.80159384</v>
@@ -2894,7 +2937,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="2">
         <v>39810717.055349804</v>
@@ -2915,7 +2961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB62CD-F9CC-5A45-ADE0-F9B8B3E829EA}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -2948,7 +2994,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>314437.50000000006</v>
@@ -2959,7 +3005,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3018,7 +3064,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>5887560</v>
@@ -3029,7 +3075,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>12040000</v>
@@ -3073,7 +3119,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>200586399.99999997</v>
@@ -3095,7 +3141,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3127,7 +3173,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3159,7 +3205,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
         <v>15290800.000000002</v>
@@ -3181,7 +3227,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3213,7 +3259,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <v>79432823.472428367</v>

--- a/Data/Exp_cofactor_abundance.xlsx
+++ b/Data/Exp_cofactor_abundance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F97AD95-5D6D-6B41-BA80-2910A26E5D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D812F-E108-C646-AD3E-0F3F3E5AA849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30820" yWindow="1480" windowWidth="25380" windowHeight="17040" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32560" windowHeight="20540" activeTab="8" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
   <si>
     <t>Sodium</t>
   </si>
@@ -210,6 +212,30 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Moore 2018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.biochem.7b01034</t>
+  </si>
+  <si>
+    <t>Hanner 2019 (YPD)</t>
+  </si>
+  <si>
+    <t>mg/g</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1074/jbc.RA119.009705</t>
+  </si>
+  <si>
+    <t>Hanner 2019 (SDC)</t>
   </si>
 </sst>
 </file>
@@ -274,1033 +300,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet!$B$1:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>1702154.9999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9782500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>314437.50000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9847716.666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>489125000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21315178.181818184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>711454.54545454553</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5887560</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12040000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76568380</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4925702460</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26042520</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200586399.99999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31304000.000000007</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>847816666.66666663</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>288975050</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>467929583.33333337</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1992072.7272727271</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15290800.000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42657951.880159341</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>426579518.80159384</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>457088.18961487547</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>79432823.472428367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet!$C$1:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>2250184.7916000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2250184.7916000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2262040</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44814411.100000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44814411.100000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4352345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4352345</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9638287.1999999993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9638287.1999999993</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2250184.7916000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44814411.100000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4352345</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9638287.1999999993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2250184.7916000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44814411.100000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2250184.7916000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44814411.100000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4352345</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9638287.1999999993</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2250184.7916000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44814411.100000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4352345</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9638287.1999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F34A-ED46-9E61-6FB7C9C5989E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="690561088"/>
-        <c:axId val="688204768"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="690561088"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:min val="100000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="688204768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="688204768"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="10000000000"/>
-          <c:min val="100000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="690561088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA25DF54-DB37-604C-8EAE-1213C81D5BEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569982B-6F43-C748-8F0C-1C71160C7BD4}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1652,18 +651,18 @@
         <v>0.45</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">C2/100000</f>
+        <f t="shared" ref="D2:D10" si="0">C2/100000</f>
         <v>4.5000000000000001E-6</v>
       </c>
       <c r="E2">
         <v>112</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">(D2/E2)*1000</f>
+        <f t="shared" ref="F2:F10" si="1">(D2/E2)*1000</f>
         <v>4.0178571428571433E-5</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G9" si="2">6.02E+23*0.000000000013*F2*0.001</f>
+        <f t="shared" ref="G2:G10" si="2">6.02E+23*0.000000000013*F2*0.001</f>
         <v>314437.50000000006</v>
       </c>
       <c r="H2" s="2"/>
@@ -1831,28 +830,28 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>6.13</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>6.1299999999999999E-5</v>
+        <v>4.1900000000000002E-5</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>63.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>8.7571428571428574E-3</v>
+        <v>6.5984251968503936E-4</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>68533400</v>
+        <v>5163927.5590551179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1860,65 +859,95 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0.17</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.7E-6</v>
+      </c>
+      <c r="E10">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3.0357142857142857E-5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>237575</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
       <c r="C11">
-        <v>1.1200000000000001</v>
+        <v>6.13</v>
+      </c>
+      <c r="D11">
+        <f>C11/100000</f>
+        <v>6.1299999999999999E-5</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>(D11/E11)*1000</f>
+        <v>8.7571428571428574E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <f>6.02E+23*0.000000000013*F11*0.001</f>
+        <v>68533400</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12">
-        <v>25.12</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13">
-        <v>10.11</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14">
-        <v>9.0500000000000007</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
       </c>
       <c r="C15">
-        <v>4.1900000000000004</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1948,7 +977,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2021,7 +1050,7 @@
         <v>2.29</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">C3/100</f>
+        <f t="shared" ref="D3:D9" si="0">C3/100</f>
         <v>2.29E-2</v>
       </c>
       <c r="E3">
@@ -2150,10 +1179,25 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="E8">
+        <v>63.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="3">(D8/E8)*1000</f>
+        <v>1.1023622047244094E-4</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G9" si="4">6.02E+23*0.000000000013*F8*0.001</f>
+        <v>862708.66141732282</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2161,10 +1205,25 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="E9">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>6.4285714285714293E-4</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>5031000.0000000009</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +1242,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2220,7 +1279,7 @@
         <v>1817</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D11" si="0">C2*0.000001*6.02E+23*0.00000000000007</f>
+        <f t="shared" ref="D2:D10" si="0">C2*0.000001*6.02E+23*0.00000000000007</f>
         <v>76568380</v>
       </c>
     </row>
@@ -2301,17 +1360,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>823630</v>
+        <v>18.12</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>34707768200</v>
+        <f>C8*0.000001*6.02E+23*0.00000000000007</f>
+        <v>763576.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2319,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>973</v>
@@ -2346,22 +1405,22 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
       <c r="C11">
-        <v>18.12</v>
+        <v>823630</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>763576.8</v>
+        <f>C11*0.000001*6.02E+23*0.00000000000007</f>
+        <v>34707768200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-    <sortCondition ref="B2:B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition ref="B2:B10"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{DF393C76-D099-4445-859F-B78E61F1FD00}"/>
@@ -2548,7 +1607,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2590,7 +1649,7 @@
         <v>147.69999999999999</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D7" si="0">C2/100000</f>
+        <f t="shared" ref="D2:D9" si="0">C2/100000</f>
         <v>1.4769999999999998E-3</v>
       </c>
       <c r="E2">
@@ -2737,13 +1796,28 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>1516</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000005E-5</v>
+      </c>
+      <c r="E8">
+        <v>63.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="3">(D8/E8)*1000</f>
+        <v>7.7165354330708668E-4</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G9" si="4">6.02E+23*0.000000000013*F8*0.001</f>
+        <v>6038960.6299212603</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2751,21 +1825,36 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>38</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="E9">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>6.7857142857142864E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>53105000.000000007</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
       </c>
       <c r="C10">
-        <v>4.9000000000000004</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +1873,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2871,29 +1960,29 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
-        <v>2290867.6527677765</v>
+        <v>3235936.5692962883</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2">
-        <v>3235936.5692962883</v>
+        <v>16218100.973589335</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -2904,51 +1993,51 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="2">
-        <v>16218100.973589335</v>
+        <v>2754228703.3381724</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="2">
-        <v>2754228703.3381724</v>
+        <v>426579518.80159384</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="2">
-        <v>426579518.80159384</v>
+        <v>39810717.055349804</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="2">
-        <v>39810717.055349804</v>
+        <v>2290867.6527677765</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-    <sortCondition ref="B2:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="B2:B13"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{BD0788A6-777E-FE4E-B7F5-44A0DD391ACA}"/>
@@ -2958,321 +2047,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB62CD-F9CC-5A45-ADE0-F9B8B3E829EA}">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8886F78-011F-9D48-A3F1-0FE3D5F2AFB7}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1702154.9999999998</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2250184.7916000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2">
-        <v>9782500</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2250184.7916000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D5" si="0">C2*0.000001*6.02E+23*0.00000000000007</f>
+        <v>1095640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>310</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*0.000001*6.02E+23*0.00000000000007</f>
+        <v>13063400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4*0.000001*6.02E+23*0.00000000000007</f>
+        <v>5478200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>420</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>17698800</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{2F161FBB-568E-634C-9341-FB940D73D584}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6233B1-B496-764B-B6FF-4676A659B8D7}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>23.39</v>
+      </c>
+      <c r="D2">
+        <f>C2/1000</f>
+        <v>2.3390000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F5" si="0">(D2/E2)*1000</f>
+        <v>0.59974358974358977</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G5" si="1">6.02E+23*0.000000000013*F2*0.001</f>
+        <v>4693593333.333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>3.16</v>
+      </c>
+      <c r="D3">
+        <f>C3/1000</f>
+        <v>3.16E-3</v>
+      </c>
+      <c r="E3">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
-        <v>314437.50000000006</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2262040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.13166666666666668</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>1030423333.3333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D4">
+        <f>C4/1000</f>
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>7.6363636363636347E-5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>597621.818181818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="D5">
+        <f>C5/1000</f>
+        <v>3.8779999999999999E-4</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.9661538461538459E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>46691120</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{09FFDEAE-FBB8-E049-B089-BE4DFE462CC3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73DE03B-D785-C74E-8F57-E38AD78D485A}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>19.82</v>
+      </c>
+      <c r="D2">
+        <f>C2/1000</f>
+        <v>1.9820000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F5" si="0">(D2/E2)*1000</f>
+        <v>0.5082051282051282</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G5" si="1">6.02E+23*0.000000000013*F2*0.001</f>
+        <v>3977213333.3333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f>C3/1000</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>978250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <f>C4/1000</f>
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.1272727272727272E-4</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>882203.63636363635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9847716.666666666</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44814411.100000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>489125000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44814411.100000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2">
-        <v>21315178.181818184</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4352345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>711454.54545454553</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4352345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
-        <v>5887560</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9638287.1999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
-        <v>12040000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9638287.1999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>76568380</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2250184.7916000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4925702460</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44814411.100000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>26042520</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4352345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>200586399.99999997</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9638287.1999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>31304000.000000007</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2250184.7916000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2">
-        <v>847816666.66666663</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44814411.100000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>288975050</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2250184.7916000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2">
-        <v>467929583.33333337</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44814411.100000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1992072.7272727271</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4352345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2">
-        <v>15290800.000000002</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9638287.1999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="2">
-        <v>42657951.880159341</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2250184.7916000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="2">
-        <v>426579518.80159384</v>
-      </c>
-      <c r="C35" s="2">
-        <v>44814411.100000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="2">
-        <v>457088.18961487547</v>
-      </c>
-      <c r="C36" s="2">
-        <v>4352345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="2">
-        <v>79432823.472428367</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9638287.1999999993</v>
+      <c r="C5">
+        <v>0.2014</v>
+      </c>
+      <c r="D5">
+        <f>C5/1000</f>
+        <v>2.0139999999999999E-4</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.0984615384615382E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>24248559.999999996</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C12">
-    <sortCondition ref="A1"/>
-  </sortState>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{CA41FC4F-50CA-6A4E-A2DD-BD935EAAA5E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Exp_cofactor_abundance.xlsx
+++ b/Data/Exp_cofactor_abundance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D812F-E108-C646-AD3E-0F3F3E5AA849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325328B-CED1-F24A-B5F4-3FC5026D0E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32560" windowHeight="20540" activeTab="8" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32560" windowHeight="20540" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="63">
   <si>
     <t>Sodium</t>
   </si>
@@ -109,13 +109,7 @@
     <t>MN</t>
   </si>
   <si>
-    <t>NI</t>
-  </si>
-  <si>
     <t>ZN</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t xml:space="preserve">http://dx.doi.org/10.22161/ijeab/2.2.2 </t>
@@ -601,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569982B-6F43-C748-8F0C-1C71160C7BD4}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -625,267 +619,267 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D10" si="0">C2/100000</f>
-        <v>4.5000000000000001E-6</v>
+        <f t="shared" ref="D2:D8" si="0">C2/100000</f>
+        <v>8.6999999999999997E-6</v>
       </c>
       <c r="E2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F10" si="1">(D2/E2)*1000</f>
-        <v>4.0178571428571433E-5</v>
+        <f t="shared" ref="F2:F8" si="1">(D2/E2)*1000</f>
+        <v>2.1749999999999997E-4</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G10" si="2">6.02E+23*0.000000000013*F2*0.001</f>
-        <v>314437.50000000006</v>
+        <f t="shared" ref="G2:G8" si="2">6.02E+23*0.000000000013*F2*0.001</f>
+        <v>1702154.9999999998</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.87</v>
+        <v>3.02</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>8.6999999999999997E-6</v>
+        <v>3.0199999999999999E-5</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>2.1749999999999997E-4</v>
+        <v>1.2583333333333333E-3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="2"/>
-        <v>1702154.9999999998</v>
+        <v>9847716.666666666</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>3.02</v>
+        <v>14.98</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>3.0199999999999999E-5</v>
+        <v>1.4980000000000001E-4</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1.2583333333333333E-3</v>
+        <v>2.7236363636363638E-3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
-        <v>9847716.666666666</v>
+        <v>21315178.181818184</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>14.98</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.4980000000000001E-4</v>
+        <v>9.130000000000001E-5</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2.7236363636363638E-3</v>
+        <v>3.969565217391305E-3</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>21315178.181818184</v>
+        <v>31065817.391304351</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>9.1300000000000008</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9.130000000000001E-5</v>
+        <v>4.8899999999999996E-5</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>3.969565217391305E-3</v>
+        <v>7.5230769230769231E-4</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>31065817.391304351</v>
+        <v>5887560</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>4.8899999999999997</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4.8899999999999996E-5</v>
+        <v>4.1900000000000002E-5</v>
       </c>
       <c r="E7">
-        <v>65</v>
+        <v>63.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>7.5230769230769231E-4</v>
+        <v>6.5984251968503936E-4</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>5887560</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>5163927.5590551179</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>8.23</v>
+        <v>0.17</v>
       </c>
       <c r="D8">
-        <f>C8/100000</f>
-        <v>8.2300000000000008E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.7E-6</v>
       </c>
       <c r="E8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <f>(D8/E8)*1000</f>
-        <v>1.3949152542372884E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.0357142857142857E-5</v>
       </c>
       <c r="G8" s="2">
-        <f>6.02E+23*0.000000000013*F8*0.001</f>
-        <v>10916606.779661018</v>
+        <f t="shared" si="2"/>
+        <v>237575</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>4.1900000000000004</v>
+        <v>8.23</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>4.1900000000000002E-5</v>
+        <f>C9/100000</f>
+        <v>8.2300000000000008E-5</v>
       </c>
       <c r="E9">
-        <v>63.5</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>6.5984251968503936E-4</v>
+        <f>(D9/E9)*1000</f>
+        <v>1.3949152542372884E-3</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>5163927.5590551179</v>
+        <f>6.02E+23*0.000000000013*F9*0.001</f>
+        <v>10916606.779661018</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.7E-6</v>
+        <f>C10/100000</f>
+        <v>4.5000000000000001E-6</v>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>3.0357142857142857E-5</v>
+        <f>(D10/E10)*1000</f>
+        <v>4.0178571428571433E-5</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>237575</v>
-      </c>
+        <f>6.02E+23*0.000000000013*F10*0.001</f>
+        <v>314437.50000000006</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>6.13</v>
@@ -911,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1.1200000000000001</v>
@@ -922,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>25.12</v>
@@ -933,7 +927,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>10.11</v>
@@ -944,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>9.0500000000000007</v>
@@ -955,14 +949,14 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H6">
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
@@ -988,33 +982,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1041,10 +1035,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2.29</v>
@@ -1068,7 +1062,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1095,7 +1089,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1122,7 +1116,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1149,10 +1143,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0.01</v>
@@ -1176,10 +1170,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>6.9999999999999999E-4</v>
@@ -1202,10 +1196,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>3.5999999999999999E-3</v>
@@ -1253,24 +1247,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1285,10 +1279,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>314430</v>
@@ -1300,7 +1294,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1330,7 +1324,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1345,10 +1339,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>4760</v>
@@ -1360,10 +1354,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>18.12</v>
@@ -1375,10 +1369,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>973</v>
@@ -1390,10 +1384,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>17.7</v>
@@ -1405,10 +1399,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>823630</v>
@@ -1441,33 +1435,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1493,10 +1487,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -1519,7 +1513,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1571,10 +1565,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1582,10 +1576,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1614,7 +1608,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1623,24 +1617,24 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1666,10 +1660,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>2035</v>
@@ -1692,7 +1686,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1718,7 +1712,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1744,7 +1738,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1770,10 +1764,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>12.7</v>
@@ -1796,10 +1790,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>4.9000000000000004</v>
@@ -1822,10 +1816,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>38</v>
@@ -1848,10 +1842,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>1516</v>
@@ -1880,21 +1874,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1905,10 +1899,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>1659586907.4375677</v>
@@ -1916,7 +1910,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1927,7 +1921,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1938,7 +1932,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1949,10 +1943,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>79432823.472428367</v>
@@ -1960,10 +1954,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>3235936.5692962883</v>
@@ -1971,10 +1965,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>16218100.973589335</v>
@@ -1982,10 +1976,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2">
         <v>16218100.973589335</v>
@@ -1993,10 +1987,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2">
         <v>2754228703.3381724</v>
@@ -2004,10 +1998,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
         <v>426579518.80159384</v>
@@ -2015,10 +2009,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
         <v>39810717.055349804</v>
@@ -2026,10 +2020,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2">
         <v>2290867.6527677765</v>
@@ -2062,24 +2056,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -2094,10 +2088,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>310</v>
@@ -2109,10 +2103,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>130</v>
@@ -2124,10 +2118,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>420</v>
@@ -2157,36 +2151,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>23.39</v>
@@ -2209,7 +2203,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2235,7 +2229,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -2261,10 +2255,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0.38779999999999998</v>
@@ -2297,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73DE03B-D785-C74E-8F57-E38AD78D485A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2305,36 +2299,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>19.82</v>
@@ -2357,7 +2351,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2383,7 +2377,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -2409,10 +2403,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0.2014</v>

--- a/Data/Exp_cofactor_abundance.xlsx
+++ b/Data/Exp_cofactor_abundance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D325328B-CED1-F24A-B5F4-3FC5026D0E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097B588-41E9-2344-B1B5-6680D4806C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32560" windowHeight="20540" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32560" windowHeight="20540" activeTab="7" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569982B-6F43-C748-8F0C-1C71160C7BD4}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2143,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6233B1-B496-764B-B6FF-4676A659B8D7}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2296,6 +2296,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/Data/Exp_cofactor_abundance.xlsx
+++ b/Data/Exp_cofactor_abundance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097B588-41E9-2344-B1B5-6680D4806C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFAD4D-BADD-DC4A-A87C-09E144089D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32560" windowHeight="20540" activeTab="7" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27540" windowHeight="20540" activeTab="10" xr2:uid="{07F01E4B-2D48-C643-83A6-16C979720ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
   <si>
     <t>Sodium</t>
   </si>
@@ -230,6 +232,15 @@
   </si>
   <si>
     <t>Hanner 2019 (SDC)</t>
+  </si>
+  <si>
+    <t>﻿Holmes-Hampton 2013 (min)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/bi3015339</t>
+  </si>
+  <si>
+    <t>﻿Holmes-Hampton 2013 (max)</t>
   </si>
 </sst>
 </file>
@@ -966,6 +977,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352A47FE-3AB0-8649-9882-2C13D2BE730A}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D5" si="0">C2*0.000001*6.02E+23*0.00000000000007</f>
+        <v>589960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*0.000001*6.02E+23*0.00000000000007</f>
+        <v>6742399.9999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4*0.000001*6.02E+23*0.00000000000007</f>
+        <v>842799.99999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>7163799.9999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{12EDB28F-673C-D849-93E0-B5AAC5F0CA87}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D9E0B-C380-D147-86B0-669995220300}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D5" si="0">C2*0.000001*6.02E+23*0.00000000000007</f>
+        <v>1643460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*0.000001*6.02E+23*0.00000000000007</f>
+        <v>54782000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>280</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4*0.000001*6.02E+23*0.00000000000007</f>
+        <v>11799200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>450</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>18963000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{895D8CA0-EDAD-674A-BE31-35679CB5F59D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9288F97B-A1CB-6140-AC94-1FA4F77991B3}">
   <dimension ref="A1:H9"/>
@@ -1236,7 +1445,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2143,9 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6233B1-B496-764B-B6FF-4676A659B8D7}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
